--- a/pred_ohlcv/54_21/2019-10-19 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FAB ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-973918.410325241</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1136962.498425241</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1136952.498425241</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1137467.986625241</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2347630.4371299</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3203270.2884299</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3229012.8074299</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3229012.8074299</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3226236.3594299</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3222425.7756299</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-61155.36618784386</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-61125.66178784386</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-684770.7064878438</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-661060.7831878437</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-973918.410325241</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-973908.2926252411</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1136962.498425241</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1136952.498425241</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1137467.986625241</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-876195.9669252412</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2293661.031725241</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2291074.388925241</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2291074.388925241</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2334891.183825241</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2334881.183825241</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2334881.183825241</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2336074.8610299</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2347640.4371299</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2347630.4371299</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3197630.4371299</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3197630.4371299</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3197620.4371299</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3203270.2884299</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3222436.7756299</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3222425.7756299</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
